--- a/biology/Médecine/Massage_du_nourrisson/Massage_du_nourrisson.xlsx
+++ b/biology/Médecine/Massage_du_nourrisson/Massage_du_nourrisson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le massage du nourrisson est (ou était) pratiqué après la naissance dans de nombreuses sociétés traditionnelles (après coupe du cordon ombilical parfois chez les Wolof en Afrique équatoriale et tropicale). Il était pratiqué par de nombreux peuples, du Grand Nord Canadien, de l'Afrique équatoriale et tropicale, en Inde, en Irlande du Nord, ou dans les îles Pacifiques.
 </t>
@@ -511,9 +523,11 @@
           <t>Types de massages des nourrissons</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les cas et les rituels, il est pratiqué par la mère, une personne proche de la mère (la grand-mère chez les Wolof[1]). Le bébé est généralement nu et allongé sur les jambes de la masseuse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les cas et les rituels, il est pratiqué par la mère, une personne proche de la mère (la grand-mère chez les Wolof). Le bébé est généralement nu et allongé sur les jambes de la masseuse.
 La masseuse est le plus souvent assise sur le sol (éventuellement appuyée le dos contre un mur), les jambes allongées au sol.
 Les mains de la masseuse sont préalablement enduites de graisse végétale ou d'une huile végétale éventuellement parfumée (par les mains passées au-dessus d'encens brûlant par exemple, chez les Wolofs). 
 Ce massage précède ou suit souvent la toilette du bébé.
@@ -545,7 +559,9 @@
           <t>Manipulations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bébé subit des mains de la masseuse de nombreuses manipulations ; étirement, pressions, torsions, suspension, pédalage des pieds, etc. Le nourrisson est parfois aussi secoué de haut en bas, et plusieurs fois renversé et/ou suspendu par les pieds ou la tête.
 	Massage à l'africaine (Bénin).
@@ -577,7 +593,9 @@
           <t>Rituels, et significations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rituels de massage de nourrissons ont un sens, ils soignent divers organes, préparent la vie du futur adolescent (virilité, fécondité, courage, adresse, équilibre, socialisation) et reproduisent parfois le passage de la naissance (accouchement), pour en quelque sorte créer les conditions d'une « renaissance » à la vie sociale. Ces massages aident le bébé à affiner son schéma corporel et à développer sa psychomotricité.
 Chaque massage est aussi l'occasion pour la masseuse de vérifier l'absence d'anomalies sur la peau ou dans le corps (durceurs, kystes, etc.). 
@@ -610,7 +628,9 @@
           <t>Intérêts</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il offre :
 une stimulation des systèmes circulatoires (sanguin, lymphatique, digestif, respiratoire), ainsi que du système nerveux et des centres de l'équilibre (oreille interne, cerveau). Il est réputé renforcer le système immunitaire... et contribue à décongestionner les sinus, soulager les maux de dents, certaines formes de coliques ou constipation. il favorise enfin l'expulsion des mucosités...
